--- a/小詹 工作交接.xlsx
+++ b/小詹 工作交接.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -15,14 +15,100 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 / 22 ~ 09 / 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人身险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 / 15 ~ 09 / 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 / 08 ~ 09 / 04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09 / 01 ~ 08 / 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 / 25 ~ 08 / 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 / 18 ~ 08 / 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 / 11 ~ 08 / 07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08 / 04 ~ 07 / 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 / 28 ~ 07 / 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07 / 21 ~ 07 / 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -34,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -42,12 +128,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,13 +613,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="21" customHeight="1">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="4"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="4"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="6"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="6"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="4"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="4"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="4"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="4"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="4"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="4"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="4"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="4"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="4"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="4"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="6"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="4"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="4"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="4"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="4"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B55" s="4"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B56" s="4"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="4"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="4"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B60" s="4"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B61" s="4"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="4"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="4"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="4"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B65" s="6"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="4"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="4"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="4"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="4"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="4"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="4"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="4"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B75" s="4"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="4"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="4"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B78" s="4"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="4"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B80" s="4"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="6"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="4"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="4"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B85" s="4"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B86" s="4"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B87" s="4"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B88" s="4"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B89" s="4"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="2:5" ht="20.100000000000001" customHeight="1">
+      <c r="B90" s="6"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="92" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="93" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="94" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="95" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="96" spans="2:5" ht="20.100000000000001" customHeight="1"/>
+    <row r="97" ht="20.100000000000001" customHeight="1"/>
+    <row r="98" ht="20.100000000000001" customHeight="1"/>
+    <row r="99" ht="20.100000000000001" customHeight="1"/>
+    <row r="100" ht="20.100000000000001" customHeight="1"/>
+    <row r="101" ht="20.100000000000001" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -360,6 +1229,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -372,6 +1242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>